--- a/DRS/presupuesto.xlsx
+++ b/DRS/presupuesto.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MUVA\2-trimestre\aplicaciones_industriales_y_comerciales\AIVA_2021-imagenes_aereas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster-Visión Artificial\2O-CUATRI\1-Aplicaciones Industriales y Comerciales\Proyecto_Deteccion_Arboles\AIVA_2021-imagenes_aereas\DRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4166CF70-8F8D-49B9-9049-68093BE3D805}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="4125" windowWidth="23070" windowHeight="13905" xr2:uid="{FB3005CA-1F67-4BAC-9EA9-D12922729238}"/>
+    <workbookView xWindow="2865" yWindow="4125" windowWidth="23070" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -148,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,19 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +224,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +549,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1385FF3-3476-4259-B40C-8D18FD27749B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -566,34 +567,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1">
@@ -601,93 +602,93 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>250</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>400</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>350</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <f>SUM(B3:D3)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>1500</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f>PRODUCT(B6:D6)</f>
         <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>75</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>150</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9">
+      <c r="D9" s="8"/>
+      <c r="E9" s="5">
         <f>SUM(B9:D9)</f>
         <v>225</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
@@ -771,22 +772,22 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <f>G19-G21</f>
         <v>45046.500000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
